--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jam3-Jam2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jam3-Jam2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.02210933333333</v>
+        <v>12.265576</v>
       </c>
       <c r="H2">
-        <v>39.066328</v>
+        <v>36.796728</v>
       </c>
       <c r="I2">
-        <v>0.4128356114465612</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="J2">
-        <v>0.4128356114465611</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="N2">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="O2">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="P2">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="Q2">
-        <v>1055.368777212213</v>
+        <v>1022.964374458526</v>
       </c>
       <c r="R2">
-        <v>9498.318994909918</v>
+        <v>9206.679370126729</v>
       </c>
       <c r="S2">
-        <v>0.3925217703201068</v>
+        <v>0.3092575596903126</v>
       </c>
       <c r="T2">
-        <v>0.3925217703201067</v>
+        <v>0.3092575596903125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.02210933333333</v>
+        <v>12.265576</v>
       </c>
       <c r="H3">
-        <v>39.066328</v>
+        <v>36.796728</v>
       </c>
       <c r="I3">
-        <v>0.4128356114465612</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="J3">
-        <v>0.4128356114465611</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.020941000000001</v>
       </c>
       <c r="O3">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="P3">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="Q3">
-        <v>34.81652355273867</v>
+        <v>32.79382047567201</v>
       </c>
       <c r="R3">
-        <v>313.348711974648</v>
+        <v>295.144384281048</v>
       </c>
       <c r="S3">
-        <v>0.01294925883387649</v>
+        <v>0.009914066556420154</v>
       </c>
       <c r="T3">
-        <v>0.01294925883387648</v>
+        <v>0.009914066556420152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.02210933333333</v>
+        <v>12.265576</v>
       </c>
       <c r="H4">
-        <v>39.066328</v>
+        <v>36.796728</v>
       </c>
       <c r="I4">
-        <v>0.4128356114465612</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="J4">
-        <v>0.4128356114465611</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="N4">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="O4">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="P4">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="Q4">
-        <v>2.320049383748445</v>
+        <v>2.529914059861333</v>
       </c>
       <c r="R4">
-        <v>20.880444453736</v>
+        <v>22.769226538752</v>
       </c>
       <c r="S4">
-        <v>0.000862892584092333</v>
+        <v>0.0007648311787916016</v>
       </c>
       <c r="T4">
-        <v>0.0008628925840923329</v>
+        <v>0.0007648311787916015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.02210933333333</v>
+        <v>12.265576</v>
       </c>
       <c r="H5">
-        <v>39.066328</v>
+        <v>36.796728</v>
       </c>
       <c r="I5">
-        <v>0.4128356114465612</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="J5">
-        <v>0.4128356114465611</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="N5">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="O5">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="P5">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="Q5">
-        <v>15.39396500871289</v>
+        <v>23.07872381796</v>
       </c>
       <c r="R5">
-        <v>138.545685078416</v>
+        <v>207.70851436164</v>
       </c>
       <c r="S5">
-        <v>0.005725454957486149</v>
+        <v>0.006977046304752204</v>
       </c>
       <c r="T5">
-        <v>0.005725454957486148</v>
+        <v>0.006977046304752202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.02210933333333</v>
+        <v>12.265576</v>
       </c>
       <c r="H6">
-        <v>39.066328</v>
+        <v>36.796728</v>
       </c>
       <c r="I6">
-        <v>0.4128356114465612</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="J6">
-        <v>0.4128356114465611</v>
+        <v>0.3280082578429782</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="N6">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="O6">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="P6">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="Q6">
-        <v>2.087053462853333</v>
+        <v>3.621235507410667</v>
       </c>
       <c r="R6">
-        <v>18.78348116568</v>
+        <v>32.591119566696</v>
       </c>
       <c r="S6">
-        <v>0.0007762347509994341</v>
+        <v>0.001094754112701642</v>
       </c>
       <c r="T6">
-        <v>0.0007762347509994341</v>
+        <v>0.001094754112701642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.309489</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="H7">
         <v>21.928467</v>
       </c>
       <c r="I7">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="J7">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="N7">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="O7">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="P7">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="Q7">
-        <v>592.3930041218199</v>
+        <v>609.6205218977462</v>
       </c>
       <c r="R7">
-        <v>5331.537037096379</v>
+        <v>5486.584697079717</v>
       </c>
       <c r="S7">
-        <v>0.2203278661676634</v>
+        <v>0.1842974786282505</v>
       </c>
       <c r="T7">
-        <v>0.2203278661676634</v>
+        <v>0.1842974786282505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.309489</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="H8">
         <v>21.928467</v>
       </c>
       <c r="I8">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="J8">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.020941000000001</v>
       </c>
       <c r="O8">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="P8">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="Q8">
         <v>19.542993336383</v>
@@ -948,10 +948,10 @@
         <v>175.886940027447</v>
       </c>
       <c r="S8">
-        <v>0.007268597013088074</v>
+        <v>0.005908141651025682</v>
       </c>
       <c r="T8">
-        <v>0.007268597013088073</v>
+        <v>0.005908141651025682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.309489</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="H9">
         <v>21.928467</v>
       </c>
       <c r="I9">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="J9">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="N9">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="O9">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="P9">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="Q9">
-        <v>1.302275615714333</v>
+        <v>1.507664947125333</v>
       </c>
       <c r="R9">
-        <v>11.720480541429</v>
+        <v>13.568984524128</v>
       </c>
       <c r="S9">
-        <v>0.0004843534707130255</v>
+        <v>0.0004557898535082449</v>
       </c>
       <c r="T9">
-        <v>0.0004843534707130255</v>
+        <v>0.0004557898535082449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.309489</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="H10">
         <v>21.928467</v>
       </c>
       <c r="I10">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="J10">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="N10">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="O10">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="P10">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="Q10">
-        <v>8.640844199452667</v>
+        <v>13.753424860065</v>
       </c>
       <c r="R10">
-        <v>77.76759779507401</v>
+        <v>123.780823740585</v>
       </c>
       <c r="S10">
-        <v>0.003213776582616657</v>
+        <v>0.004157867777027094</v>
       </c>
       <c r="T10">
-        <v>0.003213776582616657</v>
+        <v>0.004157867777027094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.309489</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="H11">
         <v>21.928467</v>
       </c>
       <c r="I11">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="J11">
-        <v>0.2317303044716857</v>
+        <v>0.1954716804667316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="N11">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="O11">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="P11">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="Q11">
-        <v>1.17149180203</v>
+        <v>2.158021857907666</v>
       </c>
       <c r="R11">
-        <v>10.54342621827</v>
+        <v>19.422196721169</v>
       </c>
       <c r="S11">
-        <v>0.000435711237604525</v>
+        <v>0.0006524025569200675</v>
       </c>
       <c r="T11">
-        <v>0.000435711237604525</v>
+        <v>0.0006524025569200675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2185433333333333</v>
+        <v>0.9467743333333334</v>
       </c>
       <c r="H12">
-        <v>0.65563</v>
+        <v>2.840323</v>
       </c>
       <c r="I12">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="J12">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="N12">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="O12">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="P12">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="Q12">
-        <v>17.71170895313333</v>
+        <v>78.96216318350812</v>
       </c>
       <c r="R12">
-        <v>159.4053805782</v>
+        <v>710.6594686515731</v>
       </c>
       <c r="S12">
-        <v>0.006587490082891118</v>
+        <v>0.02387145291049432</v>
       </c>
       <c r="T12">
-        <v>0.006587490082891118</v>
+        <v>0.02387145291049432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2185433333333333</v>
+        <v>0.9467743333333334</v>
       </c>
       <c r="H13">
-        <v>0.65563</v>
+        <v>2.840323</v>
       </c>
       <c r="I13">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="J13">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.020941000000001</v>
       </c>
       <c r="O13">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="P13">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="Q13">
-        <v>0.5843077275366667</v>
+        <v>2.531340355993667</v>
       </c>
       <c r="R13">
-        <v>5.258769547830001</v>
+        <v>22.782063203943</v>
       </c>
       <c r="S13">
-        <v>0.0002173207210376783</v>
+        <v>0.0007652623696251189</v>
       </c>
       <c r="T13">
-        <v>0.0002173207210376783</v>
+        <v>0.0007652623696251188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2185433333333333</v>
+        <v>0.9467743333333334</v>
       </c>
       <c r="H14">
-        <v>0.65563</v>
+        <v>2.840323</v>
       </c>
       <c r="I14">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="J14">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="N14">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="O14">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="P14">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="Q14">
-        <v>0.03893619020111112</v>
+        <v>0.1952829363591111</v>
       </c>
       <c r="R14">
-        <v>0.35042571181</v>
+        <v>1.757546427232</v>
       </c>
       <c r="S14">
-        <v>1.448148044291381E-05</v>
+        <v>5.9036977098586E-05</v>
       </c>
       <c r="T14">
-        <v>1.448148044291381E-05</v>
+        <v>5.9036977098586E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2185433333333333</v>
+        <v>0.9467743333333334</v>
       </c>
       <c r="H15">
-        <v>0.65563</v>
+        <v>2.840323</v>
       </c>
       <c r="I15">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="J15">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="N15">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="O15">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="P15">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="Q15">
-        <v>0.2583489617622222</v>
+        <v>1.781436383985</v>
       </c>
       <c r="R15">
-        <v>2.32514065586</v>
+        <v>16.032927455865</v>
       </c>
       <c r="S15">
-        <v>9.608735261160568E-05</v>
+        <v>0.0005385550881440517</v>
       </c>
       <c r="T15">
-        <v>9.608735261160568E-05</v>
+        <v>0.0005385550881440515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2185433333333333</v>
+        <v>0.9467743333333334</v>
       </c>
       <c r="H16">
-        <v>0.65563</v>
+        <v>2.840323</v>
       </c>
       <c r="I16">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="J16">
-        <v>0.006928406783783439</v>
+        <v>0.02531881092637751</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="N16">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="O16">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="P16">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="Q16">
-        <v>0.03502594003333333</v>
+        <v>0.2795215514845556</v>
       </c>
       <c r="R16">
-        <v>0.3152334603</v>
+        <v>2.515693963361</v>
       </c>
       <c r="S16">
-        <v>1.302714680012309E-05</v>
+        <v>8.450358101543885E-05</v>
       </c>
       <c r="T16">
-        <v>1.302714680012309E-05</v>
+        <v>8.450358101543885E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.374442</v>
+        <v>16.518665</v>
       </c>
       <c r="H17">
-        <v>31.123326</v>
+        <v>49.555995</v>
       </c>
       <c r="I17">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="J17">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="N17">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="O17">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="P17">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="Q17">
-        <v>840.7902197359599</v>
+        <v>1377.677314837472</v>
       </c>
       <c r="R17">
-        <v>7567.111977623639</v>
+        <v>12399.09583353725</v>
       </c>
       <c r="S17">
-        <v>0.3127138803465175</v>
+        <v>0.4164926316743524</v>
       </c>
       <c r="T17">
-        <v>0.3127138803465175</v>
+        <v>0.4164926316743524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.374442</v>
+        <v>16.518665</v>
       </c>
       <c r="H18">
-        <v>31.123326</v>
+        <v>49.555995</v>
       </c>
       <c r="I18">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="J18">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.020941000000001</v>
       </c>
       <c r="O18">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="P18">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="Q18">
-        <v>27.737595729974</v>
+        <v>44.165079121255</v>
       </c>
       <c r="R18">
-        <v>249.638361569766</v>
+        <v>397.485712091295</v>
       </c>
       <c r="S18">
-        <v>0.01031640353158141</v>
+        <v>0.01335176955678299</v>
       </c>
       <c r="T18">
-        <v>0.01031640353158141</v>
+        <v>0.01335176955678299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.374442</v>
+        <v>16.518665</v>
       </c>
       <c r="H19">
-        <v>31.123326</v>
+        <v>49.555995</v>
       </c>
       <c r="I19">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="J19">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="N19">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="O19">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="P19">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="Q19">
-        <v>1.848334793751333</v>
+        <v>3.407161867786666</v>
       </c>
       <c r="R19">
-        <v>16.635013143762</v>
+        <v>30.66445681008</v>
       </c>
       <c r="S19">
-        <v>0.0006874484645111281</v>
+        <v>0.001030036422587375</v>
       </c>
       <c r="T19">
-        <v>0.0006874484645111281</v>
+        <v>0.001030036422587375</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.374442</v>
+        <v>16.518665</v>
       </c>
       <c r="H20">
-        <v>31.123326</v>
+        <v>49.555995</v>
       </c>
       <c r="I20">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="J20">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="N20">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="O20">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="P20">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="Q20">
-        <v>12.26404978217467</v>
+        <v>31.081272284025</v>
       </c>
       <c r="R20">
-        <v>110.376448039572</v>
+        <v>279.731450556225</v>
       </c>
       <c r="S20">
-        <v>0.004561350151469509</v>
+        <v>0.009396337407855084</v>
       </c>
       <c r="T20">
-        <v>0.004561350151469509</v>
+        <v>0.009396337407855084</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.374442</v>
+        <v>16.518665</v>
       </c>
       <c r="H21">
-        <v>31.123326</v>
+        <v>49.555995</v>
       </c>
       <c r="I21">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="J21">
-        <v>0.328897492476402</v>
+        <v>0.4417451352094495</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="N21">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="O21">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="P21">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="Q21">
-        <v>1.66271181934</v>
+        <v>4.876899073718333</v>
       </c>
       <c r="R21">
-        <v>14.96440637406</v>
+        <v>43.892091663465</v>
       </c>
       <c r="S21">
-        <v>0.0006184099823224802</v>
+        <v>0.001474360147871626</v>
       </c>
       <c r="T21">
-        <v>0.0006184099823224802</v>
+        <v>0.001474360147871627</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.6185026666666666</v>
+        <v>0.3536030000000001</v>
       </c>
       <c r="H22">
-        <v>1.855508</v>
+        <v>1.060809</v>
       </c>
       <c r="I22">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463209</v>
       </c>
       <c r="J22">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463207</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="N22">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="O22">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="P22">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="Q22">
-        <v>50.12616514834666</v>
+        <v>29.49093232161767</v>
       </c>
       <c r="R22">
-        <v>451.1354863351199</v>
+        <v>265.418390894559</v>
       </c>
       <c r="S22">
-        <v>0.0186433515072909</v>
+        <v>0.008915553650246317</v>
       </c>
       <c r="T22">
-        <v>0.0186433515072909</v>
+        <v>0.008915553650246315</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.6185026666666666</v>
+        <v>0.3536030000000001</v>
       </c>
       <c r="H23">
-        <v>1.855508</v>
+        <v>1.060809</v>
       </c>
       <c r="I23">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463209</v>
       </c>
       <c r="J23">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463207</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.020941000000001</v>
       </c>
       <c r="O23">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="P23">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="Q23">
-        <v>1.653657799225333</v>
+        <v>0.9454096001410003</v>
       </c>
       <c r="R23">
-        <v>14.882920193028</v>
+        <v>8.508686401269001</v>
       </c>
       <c r="S23">
-        <v>0.0006150425338242307</v>
+        <v>0.0002858115816615409</v>
       </c>
       <c r="T23">
-        <v>0.0006150425338242306</v>
+        <v>0.0002858115816615408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.6185026666666666</v>
+        <v>0.3536030000000001</v>
       </c>
       <c r="H24">
-        <v>1.855508</v>
+        <v>1.060809</v>
       </c>
       <c r="I24">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463209</v>
       </c>
       <c r="J24">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463207</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="N24">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="O24">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="P24">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="Q24">
-        <v>0.1101938782662222</v>
+        <v>0.07293462625066667</v>
       </c>
       <c r="R24">
-        <v>0.991744904396</v>
+        <v>0.6564116362560001</v>
       </c>
       <c r="S24">
-        <v>4.098424845365545E-05</v>
+        <v>2.204923758282911E-05</v>
       </c>
       <c r="T24">
-        <v>4.098424845365545E-05</v>
+        <v>2.20492375828291E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.6185026666666666</v>
+        <v>0.3536030000000001</v>
       </c>
       <c r="H25">
-        <v>1.855508</v>
+        <v>1.060809</v>
       </c>
       <c r="I25">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463209</v>
       </c>
       <c r="J25">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463207</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="N25">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="O25">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="P25">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="Q25">
-        <v>0.7311571547084444</v>
+        <v>0.6653341007550001</v>
       </c>
       <c r="R25">
-        <v>6.580414392376</v>
+        <v>5.988006906795</v>
       </c>
       <c r="S25">
-        <v>0.00027193821434293</v>
+        <v>0.0002011405338403426</v>
       </c>
       <c r="T25">
-        <v>0.00027193821434293</v>
+        <v>0.0002011405338403425</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.6185026666666666</v>
+        <v>0.3536030000000001</v>
       </c>
       <c r="H26">
-        <v>1.855508</v>
+        <v>1.060809</v>
       </c>
       <c r="I26">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463209</v>
       </c>
       <c r="J26">
-        <v>0.01960818482156771</v>
+        <v>0.009456115554463207</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="N26">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="O26">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="P26">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="Q26">
-        <v>0.09912742238666666</v>
+        <v>0.1043962174403334</v>
       </c>
       <c r="R26">
-        <v>0.89214680148</v>
+        <v>0.9395659569630002</v>
       </c>
       <c r="S26">
-        <v>3.686831765599925E-05</v>
+        <v>3.156055113217992E-05</v>
       </c>
       <c r="T26">
-        <v>3.686831765599926E-05</v>
+        <v>3.156055113217992E-05</v>
       </c>
     </row>
   </sheetData>
